--- a/BatteryEstimate/JiaqiWu_514_Display_BatteryEstimate.xlsx
+++ b/BatteryEstimate/JiaqiWu_514_Display_BatteryEstimate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wu/UW-MSTI/24Winter/Techin_514/week5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wu/UW-MSTI/24Winter/Techin_514/514_Project/BatteryEstimate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10931C9-03DF-394B-9B6D-3E7B08B6B174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE7D6D0-1497-EF47-91FD-CD3663F7B794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="System Parameters" sheetId="1" r:id="rId1"/>
@@ -607,14 +607,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1737,8 +1737,8 @@
   </sheetPr>
   <dimension ref="A2:Q41"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:I41"/>
+    <sheetView tabSelected="1" topLeftCell="H25" zoomScale="221" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="O26" s="15">
         <f t="shared" ref="O26:O28" si="0">$M$31/M26</f>
-        <v>1091.8032786885246</v>
+        <v>1213.1147540983607</v>
       </c>
       <c r="P26" s="14" t="s">
         <v>22</v>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="O27" s="15">
         <f t="shared" si="0"/>
-        <v>27.859114866560695</v>
+        <v>30.954572073956328</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>22</v>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="O28" s="15">
         <f t="shared" si="0"/>
-        <v>14.497801384474727</v>
+        <v>16.10866820497192</v>
       </c>
       <c r="P28" s="14" t="s">
         <v>22</v>
@@ -2234,8 +2234,7 @@
       <c r="I31" s="6"/>
       <c r="K31" s="7"/>
       <c r="M31" s="9">
-        <f>B32*B33*B34</f>
-        <v>3330</v>
+        <v>3700</v>
       </c>
       <c r="N31" s="9" t="s">
         <v>28</v>
@@ -2273,7 +2272,7 @@
       </c>
       <c r="M33" s="17">
         <f>M31/(E30*M26+F30*M27+G30*M28)</f>
-        <v>3.3555018137847643</v>
+        <v>3.7283353486497379</v>
       </c>
       <c r="N33" s="16" t="s">
         <v>34</v>
@@ -2294,7 +2293,7 @@
       </c>
       <c r="M34" s="17">
         <f>M33*24</f>
-        <v>80.532043530834343</v>
+        <v>89.48004836759371</v>
       </c>
       <c r="N34" s="16" t="s">
         <v>22</v>
@@ -6570,7 +6569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28A29AC-7642-0B4B-BB48-CCD84F5A0F99}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
+    <sheetView zoomScale="182" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -6581,12 +6580,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="31"/>
-    </row>
-    <row r="2" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+      <c r="B1" s="29"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>61</v>
       </c>
@@ -6594,7 +6593,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>62</v>
       </c>
@@ -6610,12 +6609,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="30" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:2" s="31" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:2" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="26" t="s">
